--- a/biology/Botanique/Dictyopteris/Dictyopteris.xlsx
+++ b/biology/Botanique/Dictyopteris/Dictyopteris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dictyopteris est un genre d'algues brunes de la famille des Dictyotaceae.
 L'espèce-type (l'holotype) est Dictyopteris polypodioides.
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (23 octobre 2017)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (23 octobre 2017) :
 Dictyopteris acrostichoides (J.Agardh) Bornet
 Dictyopteris areschougii (J.Agardh) O.C.Schmidt
 Dictyopteris australis (Sonder) Askenasy
@@ -552,7 +566,7 @@
 Dictyopteris serrata (Areschoug) Hoyt
 Dictyopteris undulata Holmes
 Dictyopteris woodwardia (R.Brown ex Turner) C.Agardh
-Selon ITIS      (23 octobre 2017)[4] :
+Selon ITIS      (23 octobre 2017) :
 Dictyopteris acrostichoides (J, Ag.) May
 Dictyopteris australis
 Dictyopteris delicatula Lamouroux
@@ -564,7 +578,7 @@
 Dictyopteris polypodiodes (De Candolle) Lamoureaux
 Dictyopteris repens
 Dictyopteris undulata Holmes
-Selon World Register of Marine Species                               (23 octobre 2017)[3] :
+Selon World Register of Marine Species                               (23 octobre 2017) :
 Dictyopteris acrostichoides (J.Agardh) Bornet, 1885
 Dictyopteris areschougii (J.Agardh) O.C.Schmidt, 1938
 Dictyopteris australis (Sonder) Askenasy, 1888
